--- a/data/input-product-catologue.xlsx
+++ b/data/input-product-catologue.xlsx
@@ -322,65 +322,6 @@
 - Thời gian cách ly: Không xác định.</t>
   </si>
   <si>
-    <t>SẢN PHẨM: Vamco 480SL
-Hoạt chất: Bentazone................480g/L, Special additives.....520g/L
-Hãng sản xuất: Anhui Zhongshan Chemical Industry Co., Ltd 
-Đặc tính - Công dụng:
-- Vamco 480SL là thuốc trừ cỏ hậu nảy mầm thuộc thế hệ mới nhất, tiên tiến
-nhất. Thuốc được hấp thu qua cả lá và rễ, có tác dụng cực kỳ hiệu quả với các loại
-cỏ lá rộng trên ruộng.
-- Đặc biệt, sản phẩm Vamco 480SL có thời gian áp dụng rộng và rất an toàn. Sản
-phẩm được đăng ký trừ cỏ trên ruộng đậu nành (đậu tương),...
-Hướng dẫn sử dụng:
-Cây trồng:
-Trừ cỏ dại trên ruộng:
-Lúa, lạc (đậu phộng),
-đậu tương (đậu nành)...
-Thời điểm:
-8 - 15 ngày sau sạ, gieo trồng.
-Liều lượng:
-80ml/ bình 25 lít nước.
-Thời điểm:
-15 - 30 ngày sau sạ, gieo trồng.
-Liều lượng:
-100 - 125ml/ bình 25 lít nước.
-Lưu ý:
-Sử dụng từ 1,5 lít/ha. Pha với 400 - 500 lít nước.
-Lắc kỹ chai thuốc trước khi sử dụng.
-Đi chậm, phun đủ lượng nước.
-Thời gian cách ly: Không xác định.</t>
-  </si>
-  <si>
-    <t>SẢN PHẨM: GIÁO SƯ CỎ GIÁO SƯ CỎ
-Hoạt chất: Mesotrione.............15% w/w - Special additives...85% w/w
-Hãng sản xuất: Anhui Shengdan Biochemical Co., Ltd 
-Đặc tính - Công dụng:
-- GIÁO SƯ CỎlà thuốc trừ cỏ chọn lọc, hậu nảy mầm sớm, có tác động tiếp xúc,
-nội hấp, trừ cỏ phổ rộng. Thuốc làm ức chế quá trình quang hợp của cây cỏ. Sau
-khi phun từ 3 - 5 ngày, cây cỏ bắt đầu có triệu chứng bạch tạng và chết gục sau
-khi phun 10 ngày. Hiệu quả cao với cỏ hàng niên và một số cỏ đa niên lá hẹp, lá
-rộng như cỏ chỉ, mần trầu, cỏ gấu, cỏ tức,... trong ruộng ngô, mía... Hiệu quả cao
-đối với các loại cỏ hòa bản, lá rộng.
-Hướng dẫn sử dụng:
-Cây trồng:
-Mía/Ngô (bắp)
-Cỏ hại:
-Cỏ hòa thảo
-Cỏ lá rộng
-Liều lượng:
-0.8 lít/ha.
-Pha 50 - 60 ml/bình 20 lít
-Phun 3 bình cho 1.000 m2
-Lượng nước phun từ 500 - 600 lít/ha
-Lưu ý:
-- Trên ngô (bắp), mía phun khi cỏ đã mọc nhưng còn nhỏ (1 - 5 lá).
-- Với bắp nếp, ngọt: Nên xịt dưới gốc, hạn chế xịt vào lá, nõn.
-- Phun thuốc tốt nhất khi cây ngô từ 8 lá trở lên, có thể phun trùm lên cây ngô,
-hạn chế phun tập trung vào nõn ngô. Thuốc có thể làm cho lá bị vàng, trắng sau
-một thời gian ngắn cây ngô phục hồi và các lá ra sau sẽ xanh trở lại.
-- Thời gian cách ly: Không xác định.</t>
-  </si>
-  <si>
     <t>SẢN PHẨM: siêu diệt mầm
 Hoạt chất: Acetochlor..............500g/lít - Phụ gia đặc biệt...500g/lít
 Hãng sản xuất: Shandong Zhongshi Pesticide Co., Ltd. 
@@ -439,11 +380,65 @@
 - Thời gian cách ly: Không xác định.</t>
   </si>
   <si>
-    <t>SẢN PHẨM: Modusa 960EC, MoDusa960ECGold
+    <t>SẢN PHẨM: Vamco 480SL
+Hoạt chất: Bentazone................480g/L, Special additives.....520g/L
+Hãng sản xuất: Anhui Zhongshan Chemical Industry Co., Ltd 
+Đặc tính - Công dụng:
+- Vamco 480SL là thuốc trừ cỏ hậu nảy mầm thuộc thế hệ mới nhất, tiên tiến
+nhất. Thuốc được hấp thu qua cả lá và rễ, có tác dụng cực kỳ hiệu quả với các loại
+cỏ lá rộng trên ruộng.
+- Đặc biệt, sản phẩm Vamco 480SL có thời gian áp dụng rộng và rất an toàn. Sản
+phẩm được đăng ký trừ cỏ trên ruộng đậu nành (đậu tương),...
+Hướng dẫn sử dụng:
+Cây trồng:
+Trừ cỏ dại trên ruộng:
+Lúa, lạc (đậu phộng),
+đậu tương (đậu nành)...
+Có 2 thời điểm có thể phun:
+Thời điểm 1: 8 - 15 ngày sau sạ, gieo trồng với liều lượng: 80ml/ bình 25 lít nước.
+Thời điểm 2: 15 - 30 ngày sau sạ, gieo trồng với liều lượng: 100 - 125ml/ bình 25 lít nước.
+Lưu ý:
+Sử dụng từ 1,5 lít/ha. Pha với 400 - 500 lít nước.
+Lắc kỹ chai thuốc trước khi sử dụng.
+Đi chậm, phun đủ lượng nước.
+Thời gian cách ly: Không xác định.</t>
+  </si>
+  <si>
+    <t>SẢN PHẨM: GIÁO SƯ CỎ 
+Hoạt chất: Mesotrione.............15% w/w - Special additives...85% w/w
+Hãng sản xuất: Anhui Shengdan Biochemical Co., Ltd 
+Đặc tính - Công dụng:
+- GIÁO SƯ CỎ là thuốc trừ cỏ chọn lọc, hậu nảy mầm sớm, có tác động tiếp xúc,
+nội hấp, trừ cỏ phổ rộng. Thuốc làm ức chế quá trình quang hợp của cây cỏ. Sau
+khi phun từ 3 - 5 ngày, cây cỏ bắt đầu có triệu chứng bạch tạng và chết gục sau
+khi phun 10 ngày. Hiệu quả cao với cỏ hàng niên và một số cỏ đa niên lá hẹp, lá
+rộng như cỏ chỉ, mần trầu, cỏ gấu, cỏ tức,... trong ruộng ngô, mía... Hiệu quả cao
+đối với các loại cỏ hòa bản, lá rộng.
+Hướng dẫn sử dụng:
+Cây trồng:
+Mía/Ngô (bắp)
+Cỏ hại:
+Cỏ hòa thảo
+Cỏ lá rộng
+Liều lượng:
+0.8 lít/ha.
+Pha 50 - 60 ml/bình 20 lít
+Phun 3 bình cho 1.000 m2
+Lượng nước phun từ 500 - 600 lít/ha
+Lưu ý:
+- Trên ngô (bắp), mía phun khi cỏ đã mọc nhưng còn nhỏ (1 - 5 lá).
+- Với bắp nếp, ngọt: Nên xịt dưới gốc, hạn chế xịt vào lá, nõn.
+- Phun thuốc tốt nhất khi cây ngô từ 8 lá trở lên, có thể phun trùm lên cây ngô,
+hạn chế phun tập trung vào nõn ngô. Thuốc có thể làm cho lá bị vàng, trắng sau
+một thời gian ngắn cây ngô phục hồi và các lá ra sau sẽ xanh trở lại.
+- Thời gian cách ly: Không xác định.</t>
+  </si>
+  <si>
+    <t>SẢN PHẨM: Modusa 960EC, MoDusa 960EC Gold
 Hoạt chất: S-Metolachlor 960 g/L + Phụ gia &amp; dung môi vừa đủ 1 Lít
 Hãng sản xuất: Weifang Sino-Agri Union Chemical Co., Ltd. 
 Đặc tính - Công dụng:
-- Modusa 960ECchủ yếu được hấp thụ qua mạch dẫn đi lên trên, ức chế sự tăng trưởng
+- Modusa 960EC chủ yếu được hấp thụ qua mạch dẫn đi lên trên, ức chế sự tăng trưởng
 của chồi và rễ. Hiệu quả cao trong trừ cỏ trên cây trồng cạn: Cỏ lá hẹp (cỏ gạo, mần trầu,
 cỏ túc, cỏ đuôi chồn...); chác lác (cỏ cháo, cỏ chắc, cỏ lác, cỏ cú...); cỏ lá rộng (đồng tiền,
 dền gai, nghể, vỉ cúc, rau sam, cỏ mực, cỏ chân vịt)...
@@ -797,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,24 +846,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="405" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="330" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="345" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
